--- a/tabular/ehbv-refseqs/ehbv-refseqs-side-data.xlsx
+++ b/tabular/ehbv-refseqs/ehbv-refseqs-side-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna/Projects/virus/Hepadnaviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna/Projects/virus/Hepadnaviridae-GLUE/tabular/ehbv-refseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533AD928-AAD3-0F41-84EB-30055194B462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE66165-9ED2-C648-B393-556586041C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="24160" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="240">
   <si>
     <t>host_sci_name</t>
   </si>
@@ -747,6 +747,15 @@
   </si>
   <si>
     <t>ATP2B2 (intronic)</t>
+  </si>
+  <si>
+    <t>ENSSHBG00005013498</t>
+  </si>
+  <si>
+    <t>ENSSHBG00005013510 lncRNA</t>
+  </si>
+  <si>
+    <t>ehbv-Avi.45-Strigops_polyprotein</t>
   </si>
 </sst>
 </file>
@@ -2152,11 +2161,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4041,6 +4050,17 @@
         <v>228</v>
       </c>
     </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P13">

--- a/tabular/ehbv-refseqs/ehbv-refseqs-side-data.xlsx
+++ b/tabular/ehbv-refseqs/ehbv-refseqs-side-data.xlsx
@@ -5,18 +5,18 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna/Projects/virus/Hepadnaviridae-GLUE/tabular/ehbv-refseqs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNArt/Hepadnaviridae-GLUE/tabular/ehbv-refseqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE66165-9ED2-C648-B393-556586041C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C28191B-9C5C-4443-AC37-E5C95ED5ACC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="24160" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="24160" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="236">
   <si>
     <t>host_sci_name</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Herpetohepadnavirus</t>
   </si>
   <si>
-    <t>Sphenodon</t>
-  </si>
-  <si>
     <t>Avihepadnavirus</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>ehbv-herpeto.6-varanus-con</t>
   </si>
   <si>
-    <t>ehbv-meta.1-sphenodon</t>
-  </si>
-  <si>
     <t>Passeriformes</t>
   </si>
   <si>
@@ -239,9 +233,6 @@
     <t>pelusios</t>
   </si>
   <si>
-    <t>neoaves</t>
-  </si>
-  <si>
     <t>ehbv-avi.3-passeriformes</t>
   </si>
   <si>
@@ -305,9 +296,6 @@
     <t>ehbv-hepadna.1-paroedura</t>
   </si>
   <si>
-    <t>ehbv-meta.6-neoaves</t>
-  </si>
-  <si>
     <t>ehbv-meta.3-paroedura</t>
   </si>
   <si>
@@ -329,9 +317,6 @@
     <t>Endogenous metahepadnavirus 5</t>
   </si>
   <si>
-    <t>Endogenous metahepadnavirus 6</t>
-  </si>
-  <si>
     <t>E2F7</t>
   </si>
   <si>
@@ -755,7 +740,10 @@
     <t>ENSSHBG00005013510 lncRNA</t>
   </si>
   <si>
-    <t>ehbv-Avi.45-Strigops_polyprotein</t>
+    <t>ehbv-meta.1-sauropsida</t>
+  </si>
+  <si>
+    <t>Sauropsids</t>
   </si>
 </sst>
 </file>
@@ -2161,17 +2149,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="A1:P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="7" customWidth="1"/>
@@ -2191,46 +2179,46 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="N1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>0</v>
@@ -2241,212 +2229,212 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="22">
         <v>1</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="22">
         <v>2</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="22">
         <v>5</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="J5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="22">
         <v>6</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>2</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="D7" s="23">
         <v>1</v>
@@ -2455,42 +2443,42 @@
         <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="2" t="s">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D8" s="23">
         <v>2</v>
@@ -2499,39 +2487,39 @@
         <v>1</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D9" s="23">
         <v>3</v>
@@ -2540,42 +2528,42 @@
         <v>1</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="23">
         <v>4</v>
@@ -2584,46 +2572,46 @@
         <v>1</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D11" s="23">
         <v>5</v>
@@ -2632,660 +2620,662 @@
         <v>1</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="23">
-        <v>6</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="A12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="24">
+      <c r="A13" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="25">
         <v>1</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="J13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D14" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="D15" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="D16" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="D18" s="25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D20" s="25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="D21" s="25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="D24" s="25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D25" s="25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="D26" s="25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D27" s="25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -3294,238 +3284,232 @@
         <v>31</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D28" s="25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="D29" s="25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D30" s="25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" s="25"/>
-      <c r="F30" s="18" t="s">
-        <v>87</v>
+      <c r="F30" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D31" s="25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" s="25"/>
-      <c r="F31" s="20" t="s">
-        <v>105</v>
+      <c r="F31" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D32" s="25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" s="25"/>
-      <c r="F32" s="18" t="s">
-        <v>87</v>
+      <c r="F32" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D33" s="25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" s="25"/>
-      <c r="F33" s="20" t="s">
-        <v>105</v>
+      <c r="F33" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
@@ -3533,33 +3517,33 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D34" s="25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34" s="25"/>
-      <c r="F34" s="18" t="s">
-        <v>87</v>
+      <c r="F34" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -3567,33 +3551,33 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D35" s="25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -3601,33 +3585,33 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D36" s="25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -3635,33 +3619,33 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D37" s="25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -3669,33 +3653,33 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D38" s="25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -3703,33 +3687,33 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D39" s="25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -3737,33 +3721,29 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D40" s="25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -3771,29 +3751,33 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D41" s="25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="I41" s="5"/>
       <c r="J41" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -3801,33 +3785,33 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D42" s="25">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -3835,33 +3819,33 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D43" s="25">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -3869,33 +3853,33 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D44" s="25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -3903,33 +3887,33 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D45" s="25">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>206</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -3937,33 +3921,33 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D46" s="25">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -3971,33 +3955,33 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D47" s="25">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -4005,67 +3989,30 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="25">
-        <v>35</v>
-      </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="20" t="s">
-        <v>105</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
       <c r="G48" s="5" t="s">
         <v>222</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G49" s="5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P13">
-    <sortCondition ref="K3:K13"/>
-    <sortCondition ref="D3:D13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P12">
+    <sortCondition ref="K3:K12"/>
+    <sortCondition ref="D3:D12"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
